--- a/results/I3_N5_M2_T45_C100_DepLowerLeft_s2_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepLowerLeft_s2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1589.635913135327</v>
+        <v>1301.470284478263</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6959998607635498</v>
+        <v>0.9230000972747803</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.61003287482064</v>
+        <v>50.22240071040093</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.88207629965463</v>
+        <v>22.93606783888076</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.72795657516601</v>
+        <v>8.183951606742822</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1554.179999984995</v>
+        <v>860</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -639,56 +639,12 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -744,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -755,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -766,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -777,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -857,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -868,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -879,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -890,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -962,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30.66483080554157</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +926,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>28.70624577295376</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +934,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32.99312545677405</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +942,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>21.19351943169123</v>
       </c>
     </row>
     <row r="7">
@@ -994,7 +950,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>32.4335026236004</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -1024,7 +980,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1059,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1073,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1087,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1101,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1115,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1126,7 +1082,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -1140,7 +1096,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -1154,7 +1110,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -1168,7 +1124,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -1182,7 +1138,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -1196,211 +1152,15 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>4</v>
-      </c>
-      <c r="B21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>5</v>
-      </c>
-      <c r="B22" t="n">
-        <v>7</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>5</v>
-      </c>
-      <c r="B23" t="n">
-        <v>7</v>
-      </c>
-      <c r="C23" t="n">
-        <v>2</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>5</v>
-      </c>
-      <c r="B24" t="n">
-        <v>7</v>
-      </c>
-      <c r="C24" t="n">
-        <v>3</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>5</v>
-      </c>
-      <c r="B25" t="n">
-        <v>7</v>
-      </c>
-      <c r="C25" t="n">
-        <v>4</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B26" t="n">
-        <v>7</v>
-      </c>
-      <c r="C26" t="n">
-        <v>5</v>
-      </c>
-      <c r="D26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1503,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>154.919999999394</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8">
@@ -1514,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>152.65</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9">
@@ -1525,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>157.9799999994188</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10">
@@ -1536,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>156.3849999993549</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
@@ -1547,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7899999994258</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12">
@@ -1558,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>111.2649999998996</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
@@ -1569,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>115.6149999998997</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -1580,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>116.6849999998989</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -1591,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>116.8749999998989</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
@@ -1602,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>115.9199999998995</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
@@ -1613,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>147.339999999369</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -1624,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>159.2049999994196</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
@@ -1635,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>140.4299999994264</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -1646,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>157.7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1657,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>152.9949999994018</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -1668,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>106.1699999998775</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23">
@@ -1679,7 +1439,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>112.4899999999003</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
@@ -1690,7 +1450,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.5699999999006</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
@@ -1701,7 +1461,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>110.05</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
@@ -1712,7 +1472,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>107.6749999998934</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
@@ -1723,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>207.1549999991043</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28">
@@ -1734,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>197</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
@@ -1745,7 +1505,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>202.5049999991577</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -1756,7 +1516,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>202.1699999991166</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -1767,7 +1527,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>210.5899999991809</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32">
@@ -1778,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>147.3399999991283</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33">
@@ -1789,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>159.2049999991912</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34">
@@ -1800,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>140.429999999181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35">
@@ -1811,7 +1571,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>157.7</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36">
@@ -1822,7 +1582,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>152.9949999991702</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37">
@@ -1833,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>207.1549999989385</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38">
@@ -1844,7 +1604,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>197</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39">
@@ -1855,7 +1615,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>202.5049999990042</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40">
@@ -1866,7 +1626,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>202.1699999989631</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41">
@@ -1877,7 +1637,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>210.5899999990238</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1924,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>47.33999999911441</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -1935,7 +1695,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>59.20499999917718</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
@@ -1946,7 +1706,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>40.42999999916697</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -1957,7 +1717,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>57.69999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -1968,7 +1728,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>52.99499999915622</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
@@ -1979,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.1549999989264</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -1990,7 +1750,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>97</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -2001,7 +1761,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>102.5049999989924</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -2012,7 +1772,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>102.1699999989519</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -2023,7 +1783,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>110.589999999012</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2125,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -2136,7 +1896,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2147,7 +1907,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -2158,7 +1918,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2169,7 +1929,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -2180,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -2191,7 +1951,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -2202,7 +1962,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -2213,7 +1973,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -2224,7 +1984,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -2235,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2246,7 +2006,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -2257,7 +2017,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2268,7 +2028,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -2279,7 +2039,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2290,7 +2050,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2301,7 +2061,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2312,7 +2072,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2323,7 +2083,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2334,7 +2094,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2348,7 +2108,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2430,7 +2190,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2441,7 +2201,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2452,7 +2212,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2463,7 +2223,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2474,7 +2234,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -2485,7 +2245,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2496,7 +2256,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -2507,7 +2267,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -2518,7 +2278,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
         <v>4</v>
@@ -2529,122 +2289,12 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" t="n">
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>4</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>5</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>5</v>
-      </c>
-      <c r="B23" t="n">
-        <v>2</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>5</v>
-      </c>
-      <c r="B24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>5</v>
-      </c>
-      <c r="B25" t="n">
-        <v>4</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B26" t="n">
-        <v>5</v>
-      </c>
-      <c r="C26" t="n">
         <v>1</v>
       </c>
     </row>
